--- a/excel/plot_u2_rf2_mesh.xlsx
+++ b/excel/plot_u2_rf2_mesh.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\ENSTA Bretagne\3A\5.1 Elastomères\ButeeOffshore\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="14385"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -75,6 +80,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2004,86 +2012,6 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>raideur</c:v>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>xyToExcel!$H$95:$H$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>28.200000762939453</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>28.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>28.799999237060547</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.100000381469727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>29.399999618530273</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.700000762939453</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>xyToExcel!$I$95:$I$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>17228.71875</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17499.80078125</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17773.1484375</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18055.033203125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18349.017578125</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18646.02734375</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18944.87109375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2092,11 +2020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75973376"/>
-        <c:axId val="75967488"/>
+        <c:axId val="121112480"/>
+        <c:axId val="121111304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75973376"/>
+        <c:axId val="121112480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,12 +2034,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75967488"/>
+        <c:crossAx val="121111304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75967488"/>
+        <c:axId val="121111304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75973376"/>
+        <c:crossAx val="121112480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2222,7 +2150,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2257,7 +2185,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>

--- a/excel/plot_u2_rf2_mesh.xlsx
+++ b/excel/plot_u2_rf2_mesh.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\ENSTA Bretagne\3A\5.1 Elastomères\ButeeOffshore\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="24915" windowHeight="14385"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19440" windowHeight="14385"/>
   </bookViews>
   <sheets>
     <sheet name="xyToExcel" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>mesh 0.5</t>
   </si>
@@ -33,6 +28,9 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>mesh 4</t>
   </si>
 </sst>
 </file>
@@ -2012,6 +2010,641 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>mesh 4</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>xyToExcel!$L:$L</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30000001192092896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60000002384185791</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89999997615814209</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2000000476837158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7999999523162842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0999999046325684</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.4000000953674316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7000000476837158</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2999999523162842</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5999999046325684</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9000000953674316</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1999998092651367</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8000001907348633</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0999999046325684</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.4000000953674316</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6999998092651367</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.3000001907348633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.5999999046325684</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9000000953674316</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.1999998092651367</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.8000001907348633</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.1000003814697266</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.3999996185302734</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6999998092651367</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3000001907348633</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.6000003814697266</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.8999996185302734</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.199999809265137</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.800000190734863</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>11.699999809265137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.300000190734863</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12.899999618530273</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13.199999809265137</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>13.800000190734863</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>14.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>14.699999809265137</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.300000190734863</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>15.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15.899999618530273</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>16.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>16.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>17.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>17.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>17.700000762939453</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.299999237060547</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.899999618530273</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>19.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>20.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>20.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20.700000762939453</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.299999237060547</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>21.899999618530273</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>22.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>22.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>22.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>23.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>23.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23.700000762939453</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>24.299999237060547</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>24.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24.899999618530273</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>25.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26.700000762939453</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.299999237060547</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.600000381469727</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.899999618530273</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28.200000762939453</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>28.799999237060547</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>29.100000381469727</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>29.399999618530273</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29.700000762939453</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>xyToExcel!$M:$M</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1048576"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.79205322265625</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248.58258056640625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>374.38150024414062</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>501.19888305664062</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>629.0447998046875</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>757.92926025390625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>887.8623046875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1018.85400390625</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1150.9144287109375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1284.0535888671875</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1418.2813720703125</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1553.6080322265625</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1690.043212890625</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1827.5970458984375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1966.2794189453125</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2106.10009765625</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2247.068603515625</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2389.195068359375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2532.48876953125</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2676.95947265625</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2822.61669921875</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2969.4697265625</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3117.527587890625</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3266.7998046875</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3417.29541015625</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3569.023193359375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3721.991943359375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3876.210693359375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4031.6875</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4188.43115234375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4346.44970703125</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4505.75146484375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4666.34423828125</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4828.23583984375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4991.43359375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5155.94580078125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5321.77880859375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5488.93994140625</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5657.4365234375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5827.2744140625</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5998.46142578125</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6171.0029296875</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6344.9052734375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6520.1748046875</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6696.81689453125</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6874.837890625</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>7054.24267578125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>7235.03662109375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>7417.224609375</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>7600.81201171875</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>7785.8037109375</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7972.2041015625</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>8160.017578125</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8349.2490234375</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8539.90234375</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>8731.982421875</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8925.4921875</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9120.4365234375</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>9316.818359375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>9514.640625</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9713.9091796875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>9914.625</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10116.7939453125</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10320.41796875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>10525.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>10732.0439453125</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>10939.4951171875</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>11147.9384765625</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>11357.763671875</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>11569.0966796875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>11781.865234375</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>11996.0791015625</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12211.7451171875</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>12428.8740234375</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12647.4716796875</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12867.5478515625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13089.1201171875</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13312.1943359375</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13536.771484375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13762.861328125</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13990.4697265625</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>14219.60546875</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>14450.2744140625</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>14682.482421875</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>14916.236328125</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>15151.5419921875</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>15415.4755859375</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>15683.7060546875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>15954.4599609375</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>16227.4267578125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>16502.78125</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16780.548828125</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17060.759765625</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17343.4453125</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17628.634765625</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>17916.361328125</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>18206.658203125</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>18499.556640625</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18795.091796875</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>19093.296875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2020,13 +2653,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121112480"/>
-        <c:axId val="121111304"/>
+        <c:axId val="203406720"/>
+        <c:axId val="412222592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121112480"/>
+        <c:axId val="203406720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
+          <c:min val="28"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2034,14 +2669,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121111304"/>
+        <c:crossAx val="412222592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121111304"/>
+        <c:axId val="412222592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="19500"/>
+          <c:min val="16500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2050,7 +2687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121112480"/>
+        <c:crossAx val="203406720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2064,6 +2701,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2076,16 +2718,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2150,7 +2792,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2185,7 +2827,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2394,15 +3036,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2434,8 +3076,17 @@
         <f>STEYX(I50:I101,H50:H101)/I101</f>
         <v>1.1640597000476904E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2463,8 +3114,14 @@
       <c r="I2">
         <v>123.1585693359375</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="M2">
+        <v>123.79205322265625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>MAX(C:C)</f>
         <v>18907.796875</v>
@@ -2495,8 +3152,14 @@
       <c r="I3">
         <v>247.29875183105469</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0.60000002384185791</v>
+      </c>
+      <c r="M3">
+        <v>248.58258056640625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0.89999997615814209</v>
       </c>
@@ -2515,8 +3178,14 @@
       <c r="I4">
         <v>372.42987060546875</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0.89999997615814209</v>
+      </c>
+      <c r="M4">
+        <v>374.38150024414062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1.2000000476837158</v>
       </c>
@@ -2535,8 +3204,14 @@
       <c r="I5">
         <v>498.56146240234375</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="M5">
+        <v>501.19888305664062</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1.5</v>
       </c>
@@ -2555,8 +3230,14 @@
       <c r="I6">
         <v>625.70294189453125</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1.5</v>
+      </c>
+      <c r="M6">
+        <v>629.0447998046875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1.7999999523162842</v>
       </c>
@@ -2575,8 +3256,14 @@
       <c r="I7">
         <v>753.86370849609375</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>1.7999999523162842</v>
+      </c>
+      <c r="M7">
+        <v>757.92926025390625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>2.0999999046325684</v>
       </c>
@@ -2595,8 +3282,14 @@
       <c r="I8">
         <v>883.05316162109375</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>2.0999999046325684</v>
+      </c>
+      <c r="M8">
+        <v>887.8623046875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>2.4000000953674316</v>
       </c>
@@ -2615,8 +3308,14 @@
       <c r="I9">
         <v>1013.2807006835937</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="M9">
+        <v>1018.85400390625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>2.7000000476837158</v>
       </c>
@@ -2635,8 +3334,14 @@
       <c r="I10">
         <v>1144.5555419921875</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>2.7000000476837158</v>
+      </c>
+      <c r="M10">
+        <v>1150.9144287109375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>3</v>
       </c>
@@ -2655,8 +3360,14 @@
       <c r="I11">
         <v>1276.8870849609375</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>1284.0535888671875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>3.2999999523162842</v>
       </c>
@@ -2675,8 +3386,14 @@
       <c r="I12">
         <v>1410.2845458984375</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="M12">
+        <v>1418.2813720703125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>3.5999999046325684</v>
       </c>
@@ -2695,8 +3412,14 @@
       <c r="I13">
         <v>1544.757080078125</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>3.5999999046325684</v>
+      </c>
+      <c r="M13">
+        <v>1553.6080322265625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3.9000000953674316</v>
       </c>
@@ -2715,8 +3438,14 @@
       <c r="I14">
         <v>1680.313720703125</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>3.9000000953674316</v>
+      </c>
+      <c r="M14">
+        <v>1690.043212890625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>4.1999998092651367</v>
       </c>
@@ -2735,8 +3464,14 @@
       <c r="I15">
         <v>1816.963623046875</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>4.1999998092651367</v>
+      </c>
+      <c r="M15">
+        <v>1827.5970458984375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>4.5</v>
       </c>
@@ -2755,8 +3490,14 @@
       <c r="I16">
         <v>1954.715576171875</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>4.5</v>
+      </c>
+      <c r="M16">
+        <v>1966.2794189453125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>4.8000001907348633</v>
       </c>
@@ -2775,8 +3516,14 @@
       <c r="I17">
         <v>2093.57861328125</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>4.8000001907348633</v>
+      </c>
+      <c r="M17">
+        <v>2106.10009765625</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>5.0999999046325684</v>
       </c>
@@ -2795,8 +3542,14 @@
       <c r="I18">
         <v>2233.5615234375</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>5.0999999046325684</v>
+      </c>
+      <c r="M18">
+        <v>2247.068603515625</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>5.4000000953674316</v>
       </c>
@@ -2815,8 +3568,14 @@
       <c r="I19">
         <v>2374.672607421875</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>5.4000000953674316</v>
+      </c>
+      <c r="M19">
+        <v>2389.195068359375</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>5.6999998092651367</v>
       </c>
@@ -2835,8 +3594,14 @@
       <c r="I20">
         <v>2516.9208984375</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>5.6999998092651367</v>
+      </c>
+      <c r="M20">
+        <v>2532.48876953125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>6</v>
       </c>
@@ -2855,8 +3620,14 @@
       <c r="I21">
         <v>2660.314453125</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>2676.95947265625</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>6.3000001907348633</v>
       </c>
@@ -2875,8 +3646,14 @@
       <c r="I22">
         <v>2804.86181640625</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>6.3000001907348633</v>
+      </c>
+      <c r="M22">
+        <v>2822.61669921875</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>6.5999999046325684</v>
       </c>
@@ -2895,8 +3672,14 @@
       <c r="I23">
         <v>2950.571044921875</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>6.5999999046325684</v>
+      </c>
+      <c r="M23">
+        <v>2969.4697265625</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>6.9000000953674316</v>
       </c>
@@ -2915,8 +3698,14 @@
       <c r="I24">
         <v>3097.4501953125</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>6.9000000953674316</v>
+      </c>
+      <c r="M24">
+        <v>3117.527587890625</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>7.1999998092651367</v>
       </c>
@@ -2935,8 +3724,14 @@
       <c r="I25">
         <v>3245.507080078125</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>7.1999998092651367</v>
+      </c>
+      <c r="M25">
+        <v>3266.7998046875</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>7.5</v>
       </c>
@@ -2955,8 +3750,14 @@
       <c r="I26">
         <v>3394.74951171875</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>7.5</v>
+      </c>
+      <c r="M26">
+        <v>3417.29541015625</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>7.8000001907348633</v>
       </c>
@@ -2975,8 +3776,14 @@
       <c r="I27">
         <v>3545.184814453125</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>7.8000001907348633</v>
+      </c>
+      <c r="M27">
+        <v>3569.023193359375</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>8.1000003814697266</v>
       </c>
@@ -2995,8 +3802,14 @@
       <c r="I28">
         <v>3696.820556640625</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>8.1000003814697266</v>
+      </c>
+      <c r="M28">
+        <v>3721.991943359375</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>8.3999996185302734</v>
       </c>
@@ -3015,8 +3828,14 @@
       <c r="I29">
         <v>3849.6640625</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>8.3999996185302734</v>
+      </c>
+      <c r="M29">
+        <v>3876.210693359375</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>8.6999998092651367</v>
       </c>
@@ -3035,8 +3854,14 @@
       <c r="I30">
         <v>4003.721923828125</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>8.6999998092651367</v>
+      </c>
+      <c r="M30">
+        <v>4031.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>9</v>
       </c>
@@ -3055,8 +3880,14 @@
       <c r="I31">
         <v>4159.0009765625</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>4188.43115234375</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>9.3000001907348633</v>
       </c>
@@ -3075,8 +3906,14 @@
       <c r="I32">
         <v>4315.50830078125</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>9.3000001907348633</v>
+      </c>
+      <c r="M32">
+        <v>4346.44970703125</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>9.6000003814697266</v>
       </c>
@@ -3095,8 +3932,14 @@
       <c r="I33">
         <v>4473.25048828125</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>9.6000003814697266</v>
+      </c>
+      <c r="M33">
+        <v>4505.75146484375</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>9.8999996185302734</v>
       </c>
@@ -3115,8 +3958,14 @@
       <c r="I34">
         <v>4632.23291015625</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>9.8999996185302734</v>
+      </c>
+      <c r="M34">
+        <v>4666.34423828125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>10.199999809265137</v>
       </c>
@@ -3135,8 +3984,14 @@
       <c r="I35">
         <v>4792.4619140625</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>10.199999809265137</v>
+      </c>
+      <c r="M35">
+        <v>4828.23583984375</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>10.5</v>
       </c>
@@ -3155,8 +4010,14 @@
       <c r="I36">
         <v>4953.943359375</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>10.5</v>
+      </c>
+      <c r="M36">
+        <v>4991.43359375</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>10.800000190734863</v>
       </c>
@@ -3175,8 +4036,14 @@
       <c r="I37">
         <v>5116.68310546875</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>10.800000190734863</v>
+      </c>
+      <c r="M37">
+        <v>5155.94580078125</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>11.100000381469727</v>
       </c>
@@ -3195,8 +4062,14 @@
       <c r="I38">
         <v>5280.68603515625</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>11.100000381469727</v>
+      </c>
+      <c r="M38">
+        <v>5321.77880859375</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>11.399999618530273</v>
       </c>
@@ -3215,8 +4088,14 @@
       <c r="I39">
         <v>5445.9580078125</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>11.399999618530273</v>
+      </c>
+      <c r="M39">
+        <v>5488.93994140625</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40">
         <v>11.699999809265137</v>
       </c>
@@ -3235,8 +4114,14 @@
       <c r="I40">
         <v>5612.5029296875</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>11.699999809265137</v>
+      </c>
+      <c r="M40">
+        <v>5657.4365234375</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41">
         <v>12</v>
       </c>
@@ -3255,8 +4140,14 @@
       <c r="I41">
         <v>5780.32666015625</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>12</v>
+      </c>
+      <c r="M41">
+        <v>5827.2744140625</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <v>12.300000190734863</v>
       </c>
@@ -3275,8 +4166,14 @@
       <c r="I42">
         <v>5949.4326171875</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>12.300000190734863</v>
+      </c>
+      <c r="M42">
+        <v>5998.46142578125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43">
         <v>12.600000381469727</v>
       </c>
@@ -3295,8 +4192,14 @@
       <c r="I43">
         <v>6119.826171875</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>12.600000381469727</v>
+      </c>
+      <c r="M43">
+        <v>6171.0029296875</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44">
         <v>12.899999618530273</v>
       </c>
@@ -3315,8 +4218,14 @@
       <c r="I44">
         <v>6291.51025390625</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>12.899999618530273</v>
+      </c>
+      <c r="M44">
+        <v>6344.9052734375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45">
         <v>13.199999809265137</v>
       </c>
@@ -3335,8 +4244,14 @@
       <c r="I45">
         <v>6464.4892578125</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>13.199999809265137</v>
+      </c>
+      <c r="M45">
+        <v>6520.1748046875</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46">
         <v>13.5</v>
       </c>
@@ -3355,8 +4270,14 @@
       <c r="I46">
         <v>6638.76708984375</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>13.5</v>
+      </c>
+      <c r="M46">
+        <v>6696.81689453125</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47">
         <v>13.800000190734863</v>
       </c>
@@ -3375,8 +4296,14 @@
       <c r="I47">
         <v>6814.3466796875</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>13.800000190734863</v>
+      </c>
+      <c r="M47">
+        <v>6874.837890625</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48">
         <v>14.100000381469727</v>
       </c>
@@ -3395,8 +4322,14 @@
       <c r="I48">
         <v>6991.2314453125</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>14.100000381469727</v>
+      </c>
+      <c r="M48">
+        <v>7054.24267578125</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49">
         <v>14.399999618530273</v>
       </c>
@@ -3415,8 +4348,14 @@
       <c r="I49">
         <v>7169.4248046875</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>14.399999618530273</v>
+      </c>
+      <c r="M49">
+        <v>7235.03662109375</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50">
         <v>14.699999809265137</v>
       </c>
@@ -3435,8 +4374,14 @@
       <c r="I50">
         <v>7348.92822265625</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>14.699999809265137</v>
+      </c>
+      <c r="M50">
+        <v>7417.224609375</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51">
         <v>15</v>
       </c>
@@ -3455,8 +4400,14 @@
       <c r="I51">
         <v>7529.74560546875</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>7600.81201171875</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52">
         <v>15.300000190734863</v>
       </c>
@@ -3475,8 +4426,14 @@
       <c r="I52">
         <v>7711.87890625</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>15.300000190734863</v>
+      </c>
+      <c r="M52">
+        <v>7785.8037109375</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53">
         <v>15.600000381469727</v>
       </c>
@@ -3495,8 +4452,14 @@
       <c r="I53">
         <v>7895.32958984375</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>15.600000381469727</v>
+      </c>
+      <c r="M53">
+        <v>7972.2041015625</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54">
         <v>15.899999618530273</v>
       </c>
@@ -3515,8 +4478,14 @@
       <c r="I54">
         <v>8079.77392578125</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>15.899999618530273</v>
+      </c>
+      <c r="M54">
+        <v>8160.017578125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55">
         <v>16.200000762939453</v>
       </c>
@@ -3535,8 +4504,14 @@
       <c r="I55">
         <v>8265.4306640625</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>16.200000762939453</v>
+      </c>
+      <c r="M55">
+        <v>8349.2490234375</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56">
         <v>16.5</v>
       </c>
@@ -3555,8 +4530,14 @@
       <c r="I56">
         <v>8452.21484375</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>16.5</v>
+      </c>
+      <c r="M56">
+        <v>8539.90234375</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57">
         <v>16.799999237060547</v>
       </c>
@@ -3575,8 +4556,14 @@
       <c r="I57">
         <v>8640.37109375</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>16.799999237060547</v>
+      </c>
+      <c r="M57">
+        <v>8731.982421875</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58">
         <v>17.100000381469727</v>
       </c>
@@ -3595,8 +4582,14 @@
       <c r="I58">
         <v>8829.8173828125</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>17.100000381469727</v>
+      </c>
+      <c r="M58">
+        <v>8925.4921875</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59">
         <v>17.399999618530273</v>
       </c>
@@ -3615,8 +4608,14 @@
       <c r="I59">
         <v>9020.5634765625</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>17.399999618530273</v>
+      </c>
+      <c r="M59">
+        <v>9120.4365234375</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60">
         <v>17.700000762939453</v>
       </c>
@@ -3635,8 +4634,14 @@
       <c r="I60">
         <v>9212.6123046875</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>17.700000762939453</v>
+      </c>
+      <c r="M60">
+        <v>9316.818359375</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>18</v>
       </c>
@@ -3655,8 +4660,14 @@
       <c r="I61">
         <v>9405.9677734375</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>18</v>
+      </c>
+      <c r="M61">
+        <v>9514.640625</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>18.299999237060547</v>
       </c>
@@ -3675,8 +4686,14 @@
       <c r="I62">
         <v>9600.634765625</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>18.299999237060547</v>
+      </c>
+      <c r="M62">
+        <v>9713.9091796875</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>18.600000381469727</v>
       </c>
@@ -3695,8 +4712,14 @@
       <c r="I63">
         <v>9796.6171875</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>18.600000381469727</v>
+      </c>
+      <c r="M63">
+        <v>9914.625</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64">
         <v>18.899999618530273</v>
       </c>
@@ -3715,8 +4738,14 @@
       <c r="I64">
         <v>9993.91796875</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>18.899999618530273</v>
+      </c>
+      <c r="M64">
+        <v>10116.7939453125</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65">
         <v>19.200000762939453</v>
       </c>
@@ -3735,8 +4764,14 @@
       <c r="I65">
         <v>10192.5419921875</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>19.200000762939453</v>
+      </c>
+      <c r="M65">
+        <v>10320.41796875</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66">
         <v>19.5</v>
       </c>
@@ -3755,8 +4790,14 @@
       <c r="I66">
         <v>10392.4912109375</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>19.5</v>
+      </c>
+      <c r="M66">
+        <v>10525.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67">
         <v>19.799999237060547</v>
       </c>
@@ -3775,8 +4816,14 @@
       <c r="I67">
         <v>10593.7685546875</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>19.799999237060547</v>
+      </c>
+      <c r="M67">
+        <v>10732.0439453125</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>20.100000381469727</v>
       </c>
@@ -3795,8 +4842,14 @@
       <c r="I68">
         <v>10796.3759765625</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>20.100000381469727</v>
+      </c>
+      <c r="M68">
+        <v>10939.4951171875</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69">
         <v>20.399999618530273</v>
       </c>
@@ -3815,8 +4868,14 @@
       <c r="I69">
         <v>11007.8291015625</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>20.399999618530273</v>
+      </c>
+      <c r="M69">
+        <v>11147.9384765625</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70">
         <v>20.700000762939453</v>
       </c>
@@ -3835,8 +4894,14 @@
       <c r="I70">
         <v>11224.17578125</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>20.700000762939453</v>
+      </c>
+      <c r="M70">
+        <v>11357.763671875</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71">
         <v>21</v>
       </c>
@@ -3855,8 +4920,14 @@
       <c r="I71">
         <v>11442.1279296875</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>21</v>
+      </c>
+      <c r="M71">
+        <v>11569.0966796875</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72">
         <v>21.299999237060547</v>
       </c>
@@ -3875,8 +4946,14 @@
       <c r="I72">
         <v>11661.75</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>21.299999237060547</v>
+      </c>
+      <c r="M72">
+        <v>11781.865234375</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73">
         <v>21.600000381469727</v>
       </c>
@@ -3895,8 +4972,14 @@
       <c r="I73">
         <v>11883.037109375</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>21.600000381469727</v>
+      </c>
+      <c r="M73">
+        <v>11996.0791015625</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74">
         <v>21.899999618530273</v>
       </c>
@@ -3915,8 +4998,14 @@
       <c r="I74">
         <v>12106.0107421875</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>21.899999618530273</v>
+      </c>
+      <c r="M74">
+        <v>12211.7451171875</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75">
         <v>22.200000762939453</v>
       </c>
@@ -3935,8 +5024,14 @@
       <c r="I75">
         <v>12330.681640625</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>22.200000762939453</v>
+      </c>
+      <c r="M75">
+        <v>12428.8740234375</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76">
         <v>22.5</v>
       </c>
@@ -3955,8 +5050,14 @@
       <c r="I76">
         <v>12557.0625</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>22.5</v>
+      </c>
+      <c r="M76">
+        <v>12647.4716796875</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77">
         <v>22.799999237060547</v>
       </c>
@@ -3975,8 +5076,14 @@
       <c r="I77">
         <v>12785.1630859375</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>22.799999237060547</v>
+      </c>
+      <c r="M77">
+        <v>12867.5478515625</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78">
         <v>23.100000381469727</v>
       </c>
@@ -3995,8 +5102,14 @@
       <c r="I78">
         <v>13014.9951171875</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>23.100000381469727</v>
+      </c>
+      <c r="M78">
+        <v>13089.1201171875</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79">
         <v>23.399999618530273</v>
       </c>
@@ -4015,8 +5128,14 @@
       <c r="I79">
         <v>13246.5693359375</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>23.399999618530273</v>
+      </c>
+      <c r="M79">
+        <v>13312.1943359375</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80">
         <v>23.700000762939453</v>
       </c>
@@ -4035,8 +5154,14 @@
       <c r="I80">
         <v>13479.8994140625</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>23.700000762939453</v>
+      </c>
+      <c r="M80">
+        <v>13536.771484375</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>24</v>
       </c>
@@ -4055,8 +5180,14 @@
       <c r="I81">
         <v>13714.9970703125</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <v>13762.861328125</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>24.299999237060547</v>
       </c>
@@ -4075,8 +5206,14 @@
       <c r="I82">
         <v>13951.8759765625</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>24.299999237060547</v>
+      </c>
+      <c r="M82">
+        <v>13990.4697265625</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83">
         <v>24.600000381469727</v>
       </c>
@@ -4095,8 +5232,14 @@
       <c r="I83">
         <v>14190.5498046875</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>24.600000381469727</v>
+      </c>
+      <c r="M83">
+        <v>14219.60546875</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84">
         <v>24.899999618530273</v>
       </c>
@@ -4115,8 +5258,14 @@
       <c r="I84">
         <v>14431.0380859375</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>24.899999618530273</v>
+      </c>
+      <c r="M84">
+        <v>14450.2744140625</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85">
         <v>25.200000762939453</v>
       </c>
@@ -4135,8 +5284,14 @@
       <c r="I85">
         <v>14673.345703125</v>
       </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>25.200000762939453</v>
+      </c>
+      <c r="M85">
+        <v>14682.482421875</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86">
         <v>25.5</v>
       </c>
@@ -4155,8 +5310,14 @@
       <c r="I86">
         <v>14918.5771484375</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>25.5</v>
+      </c>
+      <c r="M86">
+        <v>14916.236328125</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>25.799999237060547</v>
       </c>
@@ -4175,8 +5336,14 @@
       <c r="I87">
         <v>15165.6767578125</v>
       </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>25.799999237060547</v>
+      </c>
+      <c r="M87">
+        <v>15151.5419921875</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>26.100000381469727</v>
       </c>
@@ -4195,8 +5362,14 @@
       <c r="I88">
         <v>15414.5791015625</v>
       </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>26.100000381469727</v>
+      </c>
+      <c r="M88">
+        <v>15415.4755859375</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>26.399999618530273</v>
       </c>
@@ -4215,8 +5388,14 @@
       <c r="I89">
         <v>15665.392578125</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>26.399999618530273</v>
+      </c>
+      <c r="M89">
+        <v>15683.7060546875</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90">
         <v>26.700000762939453</v>
       </c>
@@ -4235,8 +5414,14 @@
       <c r="I90">
         <v>15918.087890625</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>26.700000762939453</v>
+      </c>
+      <c r="M90">
+        <v>15954.4599609375</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91">
         <v>27</v>
       </c>
@@ -4255,8 +5440,14 @@
       <c r="I91">
         <v>16172.67578125</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>27</v>
+      </c>
+      <c r="M91">
+        <v>16227.4267578125</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92">
         <v>27.299999237060547</v>
       </c>
@@ -4275,8 +5466,14 @@
       <c r="I92">
         <v>16429.17578125</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>27.299999237060547</v>
+      </c>
+      <c r="M92">
+        <v>16502.78125</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93">
         <v>27.600000381469727</v>
       </c>
@@ -4295,8 +5492,14 @@
       <c r="I93">
         <v>16693.33984375</v>
       </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>27.600000381469727</v>
+      </c>
+      <c r="M93">
+        <v>16780.548828125</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94">
         <v>27.899999618530273</v>
       </c>
@@ -4315,8 +5518,14 @@
       <c r="I94">
         <v>16959.943359375</v>
       </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>27.899999618530273</v>
+      </c>
+      <c r="M94">
+        <v>17060.759765625</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95">
         <v>28.200000762939453</v>
       </c>
@@ -4335,8 +5544,14 @@
       <c r="I95">
         <v>17228.71875</v>
       </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>28.200000762939453</v>
+      </c>
+      <c r="M95">
+        <v>17343.4453125</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96">
         <v>28.5</v>
       </c>
@@ -4355,8 +5570,14 @@
       <c r="I96">
         <v>17499.80078125</v>
       </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>28.5</v>
+      </c>
+      <c r="M96">
+        <v>17628.634765625</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97">
         <v>28.799999237060547</v>
       </c>
@@ -4375,8 +5596,14 @@
       <c r="I97">
         <v>17773.1484375</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>28.799999237060547</v>
+      </c>
+      <c r="M97">
+        <v>17916.361328125</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98">
         <v>29.100000381469727</v>
       </c>
@@ -4395,8 +5622,14 @@
       <c r="I98">
         <v>18055.033203125</v>
       </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>29.100000381469727</v>
+      </c>
+      <c r="M98">
+        <v>18206.658203125</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99">
         <v>29.399999618530273</v>
       </c>
@@ -4415,8 +5648,14 @@
       <c r="I99">
         <v>18349.017578125</v>
       </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>29.399999618530273</v>
+      </c>
+      <c r="M99">
+        <v>18499.556640625</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100">
         <v>29.700000762939453</v>
       </c>
@@ -4435,8 +5674,14 @@
       <c r="I100">
         <v>18646.02734375</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>29.700000762939453</v>
+      </c>
+      <c r="M100">
+        <v>18795.091796875</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101">
         <v>30</v>
       </c>
@@ -4454,6 +5699,12 @@
       </c>
       <c r="I101">
         <v>18944.87109375</v>
+      </c>
+      <c r="L101">
+        <v>30</v>
+      </c>
+      <c r="M101">
+        <v>19093.296875</v>
       </c>
     </row>
   </sheetData>
